--- a/xlsx/a69_f34_gUPPachuca.xlsx
+++ b/xlsx/a69_f34_gUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\Fracciones comunes de Transparencia\Fracción 34 g\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\1ER ENTREGA 4TO TRIMESTRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655" tabRatio="313"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" tabRatio="327"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>Secretaría Administrativa (UPP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Los campos en blanco, obedecen a que en este Organismo, no se generaron donaciones de bienes muebles e inmuebles durante el periodo que se reporta. </t>
+    <t>No se presenta información,  ya que se requiere del cierre financiero para llevar a cabo la conciliación contable de las donaciones de bienes muebles e intangibles al 31 de diciembre de 2020; se sustituirá cuando se cuente con la información financiera correspondiente.</t>
   </si>
 </sst>
 </file>
@@ -305,12 +305,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,6 +312,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
     <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35" customWidth="1"/>
+    <col min="18" max="18" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -632,38 +632,38 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -778,26 +778,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -855,37 +855,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
       <c r="B8" s="3">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C8" s="3">
-        <v>44012</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
+        <v>44196</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="3">
-        <v>44022</v>
+        <v>44206</v>
       </c>
       <c r="Q8" s="3">
-        <v>44022</v>
-      </c>
-      <c r="R8" s="6" t="s">
+        <v>44206</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -900,15 +900,15 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E12">
       <formula1>Hidden_14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F12">
       <formula1>Hidden_25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f34_gUPPachuca.xlsx
+++ b/xlsx/a69_f34_gUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\1ER ENTREGA 4TO TRIMESTRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="Hidden_14">Hidden_1!$A$1:$A$9</definedName>
     <definedName name="Hidden_25">Hidden_2!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -219,7 +219,7 @@
     <t>Secretaría Administrativa (UPP)</t>
   </si>
   <si>
-    <t>No se presenta información,  ya que se requiere del cierre financiero para llevar a cabo la conciliación contable de las donaciones de bienes muebles e intangibles al 31 de diciembre de 2020; se sustituirá cuando se cuente con la información financiera correspondiente.</t>
+    <t xml:space="preserve">Los campos en blanco, obedecen a que en este Organismo, no se generaron donaciones de bienes muebles e inmuebles durante el periodo que se reporta. </t>
   </si>
 </sst>
 </file>
@@ -293,30 +293,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,7 +592,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +614,7 @@
     <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="59.140625" customWidth="1"/>
+    <col min="18" max="18" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -632,38 +623,38 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -778,26 +769,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -855,37 +846,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2020</v>
       </c>
-      <c r="B8" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="6">
         <v>44196</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="6">
         <v>44206</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="6">
         <v>44206</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -900,15 +891,15 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E201">
       <formula1>Hidden_14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
       <formula1>Hidden_25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -916,7 +907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -974,7 +967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f34_gUPPachuca.xlsx
+++ b/xlsx/a69_f34_gUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" tabRatio="327"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Hidden_14">Hidden_1!$A$1:$A$9</definedName>
     <definedName name="Hidden_25">Hidden_2!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -39,7 +39,7 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>Inventario_Inventario de bienes muebles e inmuebles donados</t>
+    <t>Inventario de bienes muebles e inmuebles donados</t>
   </si>
   <si>
     <t>a69_f34_g</t>
@@ -87,22 +87,22 @@
     <t>494151</t>
   </si>
   <si>
-    <t>494158</t>
-  </si>
-  <si>
-    <t>494143</t>
-  </si>
-  <si>
-    <t>494152</t>
-  </si>
-  <si>
-    <t>494144</t>
+    <t>562042</t>
+  </si>
+  <si>
+    <t>562043</t>
+  </si>
+  <si>
+    <t>562044</t>
+  </si>
+  <si>
+    <t>562045</t>
   </si>
   <si>
     <t>494150</t>
   </si>
   <si>
-    <t>494145</t>
+    <t>562046</t>
   </si>
   <si>
     <t>494148</t>
@@ -144,22 +144,22 @@
     <t>Actividades a que se destinará el bien (catálogo)</t>
   </si>
   <si>
-    <t>Personería jurídica del donatario (catálogo)</t>
-  </si>
-  <si>
-    <t>Nombre(s) del donatario, en su caso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primer apellido del donatario, en su caso </t>
-  </si>
-  <si>
-    <t>Segundo apellido del donatario</t>
+    <t>Personería jurídica del donante (catálogo)</t>
+  </si>
+  <si>
+    <t>Nombre(s) del donante, en su caso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer apellido del donante, en su caso </t>
+  </si>
+  <si>
+    <t>Segundo apellido del donante</t>
   </si>
   <si>
     <t>Tipo de persona moral, en su caso</t>
   </si>
   <si>
-    <t>Denominación o razón social Donatario, en su caso</t>
+    <t>Denominación o razón social donante, en su caso</t>
   </si>
   <si>
     <t>Valor de adquisición o de inventario del bien donado</t>
@@ -216,17 +216,17 @@
     <t>Persona moral</t>
   </si>
   <si>
+    <t>No se presenta información, ya que se requiere del cierre financiero para llevar a cabo la conciliación contable de las donaciones de bienes muebles e intangibles al 30 de junio de 2021; se sustituirá cuando se cuente con la información financiera correspondiente.</t>
+  </si>
+  <si>
     <t>Secretaría Administrativa (UPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los campos en blanco, obedecen a que en este Organismo, no se generaron donaciones de bienes muebles e inmuebles durante el periodo que se reporta. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -239,16 +239,20 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +262,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -293,20 +302,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,19 +617,19 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35" customWidth="1"/>
+    <col min="18" max="18" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -676,19 +691,19 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
@@ -846,38 +861,38 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="6">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+    <row r="8" spans="1:18" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="7">
+        <v>44386</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>44386</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="P8" s="6">
-        <v>44206</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>44206</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +914,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -907,9 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -967,9 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f34_gUPPachuca.xlsx
+++ b/xlsx/a69_f34_gUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP CIERRE PRESUPUESTAL 2DO TRIMESTRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -216,17 +216,17 @@
     <t>Persona moral</t>
   </si>
   <si>
-    <t>No se presenta información, ya que se requiere del cierre financiero para llevar a cabo la conciliación contable de las donaciones de bienes muebles e intangibles al 30 de junio de 2021; se sustituirá cuando se cuente con la información financiera correspondiente.</t>
-  </si>
-  <si>
     <t>Secretaría Administrativa (UPP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los campos en blanco, obedecen a que en este Organismo, no se generaron donaciones de bienes muebles e inmuebles durante el periodo que se reporta. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -245,14 +245,8 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,11 +256,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
     <fill>
@@ -302,17 +291,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -320,9 +309,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +615,7 @@
     <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="49.140625" customWidth="1"/>
+    <col min="18" max="18" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -861,7 +847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2021</v>
       </c>
@@ -882,8 +868,8 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="8" t="s">
-        <v>64</v>
+      <c r="O8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="P8" s="7">
         <v>44386</v>
@@ -892,7 +878,7 @@
         <v>44386</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -914,6 +900,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f34_gUPPachuca.xlsx
+++ b/xlsx/a69_f34_gUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP CIERRE PRESUPUESTAL 2DO TRIMESTRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -219,7 +219,7 @@
     <t>Secretaría Administrativa (UPP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Los campos en blanco, obedecen a que en este Organismo, no se generaron donaciones de bienes muebles e inmuebles durante el periodo que se reporta. </t>
+    <t>No se presenta información, ya que se requiere del cierre financiero para llevar a cabo la conciliación contable de las donaciones de bienes muebles e inmuebles al 31 de diciembre de 2021; se sustituirá cuando se cuente con la información financiera correspondiente.</t>
   </si>
 </sst>
 </file>
@@ -291,16 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -309,6 +304,19 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +601,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +623,7 @@
     <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="68.5703125" customWidth="1"/>
+    <col min="18" max="18" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -624,38 +632,38 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -770,26 +778,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -847,37 +855,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
+      <c r="B8" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="7">
-        <v>44386</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>44386</v>
-      </c>
-      <c r="R8" s="5" t="s">
+      <c r="P8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>64</v>
       </c>
     </row>

--- a/xlsx/a69_f34_gUPPachuca.xlsx
+++ b/xlsx/a69_f34_gUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5445" tabRatio="349"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <definedName name="Hidden_14">Hidden_1!$A$1:$A$9</definedName>
     <definedName name="Hidden_25">Hidden_2!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -219,7 +214,7 @@
     <t>Secretaría Administrativa (UPP)</t>
   </si>
   <si>
-    <t>No se presenta información, ya que se requiere del cierre financiero para llevar a cabo la conciliación contable de las donaciones de bienes muebles e inmuebles al 31 de diciembre de 2021; se sustituirá cuando se cuente con la información financiera correspondiente.</t>
+    <t>No se presenta información, ya que se requiere del cierre financiero para llevar a cabo la conciliación contable de las donaciones de bienes muebles e inmuebles al 30 de junio de 2022; se sustituirá cuando se cuente con la información financiera correspondiente.</t>
   </si>
 </sst>
 </file>
@@ -239,11 +234,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -255,16 +252,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF333333"/>
+        <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1E1E1"/>
+        <fgColor rgb="FF333333"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,17 +271,26 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -293,26 +299,24 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -327,9 +331,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -346,39 +347,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,142 +458,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -600,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +648,7 @@
     <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="53.85546875" customWidth="1"/>
+    <col min="18" max="18" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -632,33 +657,33 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
@@ -778,26 +803,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -856,36 +881,36 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
+      <c r="A8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="P8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -908,7 +933,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f34_gUPPachuca.xlsx
+++ b/xlsx/a69_f34_gUPPachuca.xlsx
@@ -15,12 +15,12 @@
     <definedName name="Hidden_14">Hidden_1!$A$1:$A$9</definedName>
     <definedName name="Hidden_25">Hidden_2!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="94">
   <si>
     <t>52336</t>
   </si>
@@ -211,10 +211,97 @@
     <t>Persona moral</t>
   </si>
   <si>
-    <t>Secretaría Administrativa (UPP)</t>
-  </si>
-  <si>
-    <t>No se presenta información, ya que se requiere del cierre financiero para llevar a cabo la conciliación contable de las donaciones de bienes muebles e inmuebles al 30 de junio de 2022; se sustituirá cuando se cuente con la información financiera correspondiente.</t>
+    <t xml:space="preserve">Departamento de Inventarios  (UPP) </t>
+  </si>
+  <si>
+    <t>Microscopio binocular</t>
+  </si>
+  <si>
+    <t>Reactor y calentador de tubos de ensayo</t>
+  </si>
+  <si>
+    <t>Cámara de electroforesis</t>
+  </si>
+  <si>
+    <t>Cámara termográfica</t>
+  </si>
+  <si>
+    <t>Alberca de pelotas tomatron</t>
+  </si>
+  <si>
+    <t>Iris plus</t>
+  </si>
+  <si>
+    <t>Set proyector solar led</t>
+  </si>
+  <si>
+    <t>Carpeta de fibra óptica</t>
+  </si>
+  <si>
+    <t>Máquina de hemodiálisis</t>
+  </si>
+  <si>
+    <t>Generador de funciones arbitrario</t>
+  </si>
+  <si>
+    <t>Modelo para incisión y sutura abdominal</t>
+  </si>
+  <si>
+    <t>Modelo de sutura con sangrado</t>
+  </si>
+  <si>
+    <t>Entrenador de episiotomía y sutura sut-perineo</t>
+  </si>
+  <si>
+    <t>Modelo de intubación traqueal en infantes</t>
+  </si>
+  <si>
+    <t>Simulador avanzado para entrenamiento de intubación de las vías aéreas</t>
+  </si>
+  <si>
+    <t>Simulador multifuncional de vías aéreas de adulto</t>
+  </si>
+  <si>
+    <t>Modelo de brazo amputado con hemorragia</t>
+  </si>
+  <si>
+    <t>Simulador de paciente para la práctica de fijación de fracturas expuestas y primeros auxilios</t>
+  </si>
+  <si>
+    <t>Simulador avanzado de entrenamiento para diu</t>
+  </si>
+  <si>
+    <t>Simulador de parto emergente</t>
+  </si>
+  <si>
+    <t>Computadora pc de escritorio (cpu y monitor)</t>
+  </si>
+  <si>
+    <t>Videoproyector</t>
+  </si>
+  <si>
+    <t>Generador de energía</t>
+  </si>
+  <si>
+    <t>Viscosímetro</t>
+  </si>
+  <si>
+    <t>Agitador magnético (parrilla)</t>
+  </si>
+  <si>
+    <t>Panel touch para control de procesos industriales</t>
+  </si>
+  <si>
+    <t>Servidor de rack</t>
+  </si>
+  <si>
+    <t>Instituto Hidalguense de la Infraestructura Física Educativa</t>
+  </si>
+  <si>
+    <t>Organismo Público Descentralizado de la Administración Pública del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>Las columnas e hipervinculos que se encuentran vacias, es por que no se requieren para los Inventarios de bienes muebles e inmuebles donados.</t>
   </si>
 </sst>
 </file>
@@ -623,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,13 +721,13 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48" customWidth="1"/>
     <col min="11" max="11" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -648,7 +735,7 @@
     <col min="15" max="15" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="53.140625" customWidth="1"/>
+    <col min="18" max="18" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -673,7 +760,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -880,38 +967,4756 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>44926</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
+      <c r="J8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="2">
+        <v>68395.049999999988</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44687</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="3">
-        <v>44753</v>
+        <v>44936</v>
       </c>
       <c r="Q8" s="3">
-        <v>44753</v>
+        <v>44936</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="2">
+        <v>68395.049999999988</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="2">
+        <v>68395.049999999988</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="2">
+        <v>43158.879999999997</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="2">
+        <v>29408.22</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="2">
+        <v>29408.22</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="2">
+        <v>29408.22</v>
+      </c>
+      <c r="M14" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30249.17</v>
+      </c>
+      <c r="M15" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="2">
+        <v>68570.84</v>
+      </c>
+      <c r="M16" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="2">
+        <v>127114.24999999999</v>
+      </c>
+      <c r="M17" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="2">
+        <v>99334.95</v>
+      </c>
+      <c r="M18" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="2">
+        <v>63243.77</v>
+      </c>
+      <c r="M19" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="2">
+        <v>105677.15999999999</v>
+      </c>
+      <c r="M20" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="2">
+        <v>782217</v>
+      </c>
+      <c r="M21" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="2">
+        <v>16818.650000000001</v>
+      </c>
+      <c r="M22" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="2">
+        <v>16818.650000000001</v>
+      </c>
+      <c r="M23" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="2">
+        <v>16818.650000000001</v>
+      </c>
+      <c r="M24" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="2">
+        <v>16818.650000000001</v>
+      </c>
+      <c r="M25" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="2">
+        <v>16818.650000000001</v>
+      </c>
+      <c r="M26" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="2">
+        <v>16818.650000000001</v>
+      </c>
+      <c r="M27" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="2">
+        <v>16818.650000000001</v>
+      </c>
+      <c r="M28" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="2">
+        <v>12633.95</v>
+      </c>
+      <c r="M29" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="2">
+        <v>32165.64</v>
+      </c>
+      <c r="M30" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="2">
+        <v>13843.439999999999</v>
+      </c>
+      <c r="M31" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="2">
+        <v>30129.839999999997</v>
+      </c>
+      <c r="M32" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="2">
+        <v>34201.439999999995</v>
+      </c>
+      <c r="M33" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="2">
+        <v>78989.039999999994</v>
+      </c>
+      <c r="M34" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="2">
+        <v>19950.84</v>
+      </c>
+      <c r="M35" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="2">
+        <v>85503.599999999991</v>
+      </c>
+      <c r="M36" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="2">
+        <v>32165.64</v>
+      </c>
+      <c r="M37" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="2">
+        <v>13843.439999999999</v>
+      </c>
+      <c r="M38" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="2">
+        <v>30129.839999999997</v>
+      </c>
+      <c r="M39" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M40" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M41" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M42" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M43" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M44" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M45" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M46" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M47" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M48" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M49" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L50" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M50" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L51" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M51" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M52" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M53" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M54" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M55" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L56" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M56" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M57" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M58" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M59" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M60" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M61" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M62" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L63" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M63" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M64" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M65" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M66" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M67" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L68" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M68" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L69" s="2">
+        <v>35217.599999999999</v>
+      </c>
+      <c r="M69" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L70" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M70" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L71" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M71" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L72" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M72" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L73" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M73" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L74" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M74" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C75" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L75" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M75" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C76" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L76" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M76" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C77" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L77" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M77" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C78" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M78" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L79" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M79" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C80" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L80" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M80" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L81" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M81" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B82" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L82" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M82" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B83" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L83" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M83" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C84" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L84" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M84" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B85" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C85" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L85" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M85" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B86" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C86" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L86" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M86" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B87" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C87" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L87" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M87" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B88" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C88" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L88" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M88" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C89" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L89" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M89" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B90" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C90" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M90" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B91" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C91" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L91" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M91" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B92" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C92" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L92" s="2">
+        <v>37618.799999999996</v>
+      </c>
+      <c r="M92" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P92" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B93" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C93" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L93" s="2">
+        <v>15238.17</v>
+      </c>
+      <c r="M93" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B94" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C94" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L94" s="2">
+        <v>15238.17</v>
+      </c>
+      <c r="M94" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P94" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B95" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C95" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L95" s="2">
+        <v>46859.66</v>
+      </c>
+      <c r="M95" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B96" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C96" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L96" s="2">
+        <v>26410.98</v>
+      </c>
+      <c r="M96" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B97" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C97" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L97" s="2">
+        <v>26410.98</v>
+      </c>
+      <c r="M97" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B98" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C98" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L98" s="2">
+        <v>26410.98</v>
+      </c>
+      <c r="M98" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B99" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C99" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L99" s="2">
+        <v>26410.98</v>
+      </c>
+      <c r="M99" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B100" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C100" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L100" s="2">
+        <v>184955.56</v>
+      </c>
+      <c r="M100" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B101" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C101" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L101" s="2">
+        <v>75951</v>
+      </c>
+      <c r="M101" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P101" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B102" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C102" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L102" s="2">
+        <v>75951</v>
+      </c>
+      <c r="M102" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P102" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B103" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C103" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L103" s="2">
+        <v>75951</v>
+      </c>
+      <c r="M103" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R103" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B104" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C104" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L104" s="2">
+        <v>85218.59</v>
+      </c>
+      <c r="M104" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P104" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R104" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B105" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C105" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L105" s="2">
+        <v>175894.69</v>
+      </c>
+      <c r="M105" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B106" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C106" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L106" s="2">
+        <v>175894.69</v>
+      </c>
+      <c r="M106" s="3">
+        <v>44687</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P106" s="3">
+        <v>44936</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>44936</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -925,15 +5730,14 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E106">
       <formula1>Hidden_14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F106">
       <formula1>Hidden_25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -941,7 +5745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
